--- a/data/ordinal_classification_sample.xlsx
+++ b/data/ordinal_classification_sample.xlsx
@@ -8,22 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/workspace/python-examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C90A6FE-6061-5B45-8EAE-9908AEF22977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE79B78-8FCE-8A47-906D-89DED0A57F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Tier</t>
-  </si>
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +69,9 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -429,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -450,43 +463,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
